--- a/target/test-classes/testdata/DataTest.xlsx
+++ b/target/test-classes/testdata/DataTest.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ANHTESTER\SeleniumJava\Course_Selenium_Java_5_2024\BTSeleniumParallelExecution\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitSeleniumJavaBT\SeleniumTestNGParallelCMS\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C56E1F6-B2C1-478D-A2F9-6A79B682E388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB427EBD-5D6D-485E-9F3C-8B59B99B0B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="3" xr2:uid="{3AA89EAE-B553-48E0-B311-B6B2E80098F0}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{3AA89EAE-B553-48E0-B311-B6B2E80098F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Category" sheetId="3" r:id="rId2"/>
-    <sheet name="Brand" sheetId="4" r:id="rId3"/>
-    <sheet name="AddNewProduct" sheetId="2" r:id="rId4"/>
+    <sheet name="LoginDataProvider" sheetId="5" r:id="rId2"/>
+    <sheet name="Category" sheetId="3" r:id="rId3"/>
+    <sheet name="Brand" sheetId="4" r:id="rId4"/>
+    <sheet name="AddNewProduct" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="70">
   <si>
     <t>EMAIL</t>
   </si>
@@ -164,12 +165,6 @@
     <t>niki</t>
   </si>
   <si>
-    <t>BrandTestMH 10-08-2024</t>
-  </si>
-  <si>
-    <t>BrandMH 10-08-2024</t>
-  </si>
-  <si>
     <t>CategoryTestMH 10-08-2024</t>
   </si>
   <si>
@@ -215,7 +210,46 @@
     <t>META IMAGE</t>
   </si>
   <si>
-    <t>MHProduct 10-08-2024 4</t>
+    <t>MHProduct 15-08-2024 1</t>
+  </si>
+  <si>
+    <t>kat</t>
+  </si>
+  <si>
+    <t>sunkat</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>MHProduct 15-08-2024 2</t>
+  </si>
+  <si>
+    <t>MHProduct 15-08-2024 3</t>
+  </si>
+  <si>
+    <t>MH Brand Final 15-08-2024 1</t>
+  </si>
+  <si>
+    <t>MH Brand Final 15-08-2024 2</t>
+  </si>
+  <si>
+    <t>MH Brand Final 15-08-2024 3</t>
+  </si>
+  <si>
+    <t>BrandTestMH 15-08-2024</t>
+  </si>
+  <si>
+    <t>BrandMH 15-08-2024</t>
+  </si>
+  <si>
+    <t>MH Category 15-08-2024 1</t>
+  </si>
+  <si>
+    <t>MH Category 15-08-2024 2</t>
+  </si>
+  <si>
+    <t>MH Category 15-08-2024 3</t>
   </si>
 </sst>
 </file>
@@ -286,12 +320,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -616,7 +653,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -724,11 +761,84 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145F09EA-EB89-489D-98A1-833CD6BAF6AB}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31.21875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="7"/>
+      <c r="B5" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+      <c r="B6" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{4485EB1D-136A-4399-A8BA-B7A913E59232}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323C0AF3-86CB-4A34-B21C-7DCA33F81123}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -776,7 +886,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>34</v>
@@ -791,12 +901,64 @@
         <v>36</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -805,12 +967,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F13543E-BF74-4CF3-9AAD-5766B6558F91}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -842,16 +1004,44 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>42</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -859,18 +1049,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC345C1-1C6C-4384-B356-D39932EA8C9D}">
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.109375" style="1" customWidth="1"/>
@@ -929,16 +1119,16 @@
         <v>23</v>
       </c>
       <c r="M1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="P1" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>24</v>
@@ -947,10 +1137,10 @@
         <v>25</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>26</v>
@@ -958,13 +1148,13 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1">
         <v>3</v>
@@ -976,7 +1166,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>35</v>
@@ -985,7 +1175,7 @@
         <v>36</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L2" s="1">
         <v>22</v>
@@ -997,16 +1187,16 @@
         <v>1</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>36</v>
@@ -1019,8 +1209,127 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="L3" s="1">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="M3" s="1">
+        <v>3</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" s="1">
+        <v>19</v>
+      </c>
+      <c r="U3" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="1">
+        <v>22</v>
+      </c>
+      <c r="M4" s="1">
+        <v>3</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="1">
+        <v>19</v>
+      </c>
+      <c r="U4" s="1">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/testdata/DataTest.xlsx
+++ b/target/test-classes/testdata/DataTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitSeleniumJavaBT\SeleniumTestNGParallelCMS\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB427EBD-5D6D-485E-9F3C-8B59B99B0B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A89CF36-CF58-4F88-AFED-6652BA0A1849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{3AA89EAE-B553-48E0-B311-B6B2E80098F0}"/>
+    <workbookView xWindow="5400" yWindow="1368" windowWidth="17280" windowHeight="8880" activeTab="4" xr2:uid="{3AA89EAE-B553-48E0-B311-B6B2E80098F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -210,9 +210,6 @@
     <t>META IMAGE</t>
   </si>
   <si>
-    <t>MHProduct 15-08-2024 1</t>
-  </si>
-  <si>
     <t>kat</t>
   </si>
   <si>
@@ -222,12 +219,6 @@
     <t>123456</t>
   </si>
   <si>
-    <t>MHProduct 15-08-2024 2</t>
-  </si>
-  <si>
-    <t>MHProduct 15-08-2024 3</t>
-  </si>
-  <si>
     <t>MH Brand Final 15-08-2024 1</t>
   </si>
   <si>
@@ -250,6 +241,15 @@
   </si>
   <si>
     <t>MH Category 15-08-2024 3</t>
+  </si>
+  <si>
+    <t>MHProduct 21-08-2024 1</t>
+  </si>
+  <si>
+    <t>MHProduct 21-08-2024 2</t>
+  </si>
+  <si>
+    <t>MHProduct 21-08-2024 3</t>
   </si>
 </sst>
 </file>
@@ -764,7 +764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145F09EA-EB89-489D-98A1-833CD6BAF6AB}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -787,7 +787,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -795,7 +795,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -803,25 +803,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -886,7 +886,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>34</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>34</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>34</v>
@@ -1004,44 +1004,44 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1053,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC345C1-1C6C-4384-B356-D39932EA8C9D}">
   <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -1228,7 +1228,7 @@
         <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>35</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -1290,7 +1290,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>35</v>
